--- a/Información desembolsos Boyacá 2021 - Bancoldex- Cámara de Comercio.xlsx
+++ b/Información desembolsos Boyacá 2021 - Bancoldex- Cámara de Comercio.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33DCF4-EED9-474E-A774-4D012558A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF4A90-53A4-4AF4-BDB9-E4C83B935F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{965F98CE-967E-4ABD-8276-2FA56FCB68AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{965F98CE-967E-4ABD-8276-2FA56FCB68AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2983,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C8CE8A-E275-4438-AA72-64E4856FD9A2}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3088,173 +3089,188 @@
         <v>1.3959999999999999</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68362964-A557-4BEA-8499-13D79B79AF93}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="19">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="19">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>262</v>
+      <c r="A12" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>2</v>
+      <c r="A13" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="19">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C14" s="19">
-        <v>382</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C15" s="19">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="19">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="19">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="19">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+      <c r="A16" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C16" s="21">
         <v>1.0569999999999999</v>
       </c>
     </row>
